--- a/tests/sample_grade.xlsx
+++ b/tests/sample_grade.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risk of Bias</t>
+    <t xml:space="preserve">Risk_of_Bias</t>
   </si>
   <si>
     <t xml:space="preserve">Inconsistency</t>
@@ -40,43 +37,46 @@
     <t xml:space="preserve">Imprecision</t>
   </si>
   <si>
-    <t xml:space="preserve">Publication Bias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall Certainty</t>
+    <t xml:space="preserve">Publication_Bias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall_Certainty</t>
   </si>
   <si>
     <t xml:space="preserve">Mortality</t>
   </si>
   <si>
-    <t xml:space="preserve">Study 1 2020</t>
+    <t xml:space="preserve">Serious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Serious</t>
   </si>
   <si>
     <t xml:space="preserve">Low</t>
   </si>
   <si>
+    <t xml:space="preserve">Infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Serious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hospitalization</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moderate</t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study 2 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study 3 2020</t>
+    <t xml:space="preserve">Adverse Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality of Life</t>
   </si>
   <si>
     <t xml:space="preserve">Very Low</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study 4 2019</t>
   </si>
 </sst>
 </file>
@@ -152,8 +152,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,142 +353,153 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
